--- a/Waxing_Ver_02_Documents/02_Specification/03_DataBase Design Document/Database_ERDiagram.xlsx
+++ b/Waxing_Ver_02_Documents/02_Specification/03_DataBase Design Document/Database_ERDiagram.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Database_ER Diagram</t>
+    <t>Database_RelationDiagram</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -175,56 +175,56 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2462,7 +2462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2482,20 +2482,20 @@
   <cols>
     <col min="1" max="2" width="3" style="8"/>
     <col min="3" max="3" width="2.88671875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="3" style="17"/>
-    <col min="6" max="6" width="3" style="27"/>
+    <col min="4" max="5" width="3" style="16"/>
+    <col min="6" max="6" width="3" style="17"/>
     <col min="7" max="8" width="3" style="9"/>
     <col min="9" max="16384" width="3" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" s="13" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+    <row r="1" spans="2:40" s="12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
@@ -2513,19 +2513,19 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="10"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -2534,34 +2534,34 @@
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
       <c r="R3" s="11"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
@@ -2570,34 +2570,34 @@
       <c r="AL3" s="3"/>
     </row>
     <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -2606,34 +2606,34 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
@@ -2657,19 +2657,19 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -2697,40 +2697,40 @@
       <c r="AN7" s="5"/>
     </row>
     <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
@@ -2738,40 +2738,40 @@
       <c r="AN8" s="6"/>
     </row>
     <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -2779,40 +2779,40 @@
       <c r="AN9" s="7"/>
     </row>
     <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -2820,40 +2820,40 @@
       <c r="AN10" s="7"/>
     </row>
     <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
@@ -2861,40 +2861,40 @@
       <c r="AN11" s="7"/>
     </row>
     <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
@@ -2902,40 +2902,40 @@
       <c r="AN12" s="7"/>
     </row>
     <row r="13" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
@@ -2943,40 +2943,40 @@
       <c r="AN13" s="7"/>
     </row>
     <row r="14" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -2985,40 +2985,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="T4:AF4"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="T8:V8"/>
     <mergeCell ref="W8:Z8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="AF9:AI9"/>
@@ -3035,27 +3022,40 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="T2:AF2"/>
-    <mergeCell ref="T3:AF3"/>
-    <mergeCell ref="T4:AF4"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="T5:AF5"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
